--- a/probability/Zn/2His_1Asp/threshold.xlsx
+++ b/probability/Zn/2His_1Asp/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CCE503-A44A-421B-AABB-097191F93C3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160C1AD-73AE-49CF-B625-0DD507C92B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>angle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb_distances_calc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +474,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>3.1</v>

--- a/probability/Zn/2His_1Asp/threshold.xlsx
+++ b/probability/Zn/2His_1Asp/threshold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\ZN\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160C1AD-73AE-49CF-B625-0DD507C92B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB4740E-F751-4721-81CE-0E9DFB4D11FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/probability/Zn/2His_1Asp/threshold.xlsx
+++ b/probability/Zn/2His_1Asp/threshold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\ZN\2His_1Asp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Asp\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEB4740E-F751-4721-81CE-0E9DFB4D11FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00105E-B0E1-463F-A639-C028C3A915EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/probability/Zn/2His_1Asp/threshold.xlsx
+++ b/probability/Zn/2His_1Asp/threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Asp\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A00105E-B0E1-463F-A639-C028C3A915EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E924AB25-DD56-427A-8339-E01FF57D413F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>3.6</v>
       </c>
       <c r="C2" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>
